--- a/grupos/5ALCM - Estadisticos 20211.xlsx
+++ b/grupos/5ALCM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="151">
   <si>
     <t>Materia</t>
   </si>
@@ -188,16 +188,16 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
     <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
+    <t>Ángel Martínez Gerson Hermenegildo</t>
+  </si>
+  <si>
     <t>Molina Quezada Raúl</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Ángel Martínez Gerson Hermenegildo</t>
   </si>
   <si>
     <t>Ortega Valle Manuel</t>
@@ -962,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -971,7 +971,7 @@
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V4">
         <v>8</v>
@@ -1025,7 +1025,7 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y4">
         <v>10</v>
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1048,7 +1048,7 @@
         <v>-1</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -1093,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V5">
         <v>6</v>
@@ -1102,7 +1102,7 @@
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -1116,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -1125,7 +1125,7 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1170,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V6">
         <v>7</v>
@@ -1179,7 +1179,7 @@
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y6">
         <v>7</v>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V7">
         <v>-1</v>
@@ -1270,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -1279,7 +1279,7 @@
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1324,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V8">
         <v>9</v>
@@ -1333,7 +1333,7 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1356,7 +1356,7 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1401,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V9">
         <v>8</v>
@@ -1410,7 +1410,7 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -1424,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -1478,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V10">
         <v>8</v>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1510,7 +1510,7 @@
         <v>-1</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1555,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V11">
         <v>8</v>
@@ -1564,7 +1564,7 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1587,7 +1587,7 @@
         <v>-1</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>8</v>
@@ -1641,7 +1641,7 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y12">
         <v>8</v>
@@ -1655,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1664,7 +1664,7 @@
         <v>-1</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V13">
         <v>8</v>
@@ -1718,7 +1718,7 @@
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1809,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1818,7 +1818,7 @@
         <v>-1</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -1863,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V15">
         <v>8</v>
@@ -1872,7 +1872,7 @@
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y15">
         <v>10</v>
@@ -1886,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -1895,7 +1895,7 @@
         <v>-1</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -1940,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V16">
         <v>8</v>
@@ -1949,7 +1949,7 @@
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -1963,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1972,7 +1972,7 @@
         <v>-1</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -2017,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V17">
         <v>8</v>
@@ -2026,7 +2026,7 @@
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y17">
         <v>8</v>
@@ -2040,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -2049,7 +2049,7 @@
         <v>-1</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -2094,7 +2094,7 @@
         <v>10</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V18">
         <v>7</v>
@@ -2103,7 +2103,7 @@
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y18">
         <v>10</v>
@@ -2117,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -2126,7 +2126,7 @@
         <v>-1</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>6</v>
@@ -2171,7 +2171,7 @@
         <v>8</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V19">
         <v>8</v>
@@ -2180,7 +2180,7 @@
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y19">
         <v>6</v>
@@ -2194,7 +2194,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -2203,7 +2203,7 @@
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>9</v>
@@ -2248,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V20">
         <v>7</v>
@@ -2257,7 +2257,7 @@
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y20">
         <v>9</v>
@@ -2280,7 +2280,7 @@
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y21">
         <v>10</v>
@@ -2425,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -2434,7 +2434,7 @@
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -2479,7 +2479,7 @@
         <v>5</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V23">
         <v>8</v>
@@ -2488,7 +2488,7 @@
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y23">
         <v>7</v>
@@ -2502,7 +2502,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -2511,7 +2511,7 @@
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -2556,7 +2556,7 @@
         <v>10</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V24">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y24">
         <v>10</v>
@@ -2579,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -2633,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V25">
         <v>-1</v>
@@ -2656,7 +2656,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -2665,7 +2665,7 @@
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -2710,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V26">
         <v>8</v>
@@ -2719,7 +2719,7 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y26">
         <v>10</v>
@@ -2733,7 +2733,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -2742,7 +2742,7 @@
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -2787,7 +2787,7 @@
         <v>10</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V27">
         <v>9</v>
@@ -2796,7 +2796,7 @@
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y27">
         <v>10</v>
@@ -2810,7 +2810,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -2819,7 +2819,7 @@
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -2864,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V28">
         <v>8</v>
@@ -2873,7 +2873,7 @@
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y28">
         <v>10</v>
@@ -2887,7 +2887,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -2896,7 +2896,7 @@
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -2941,7 +2941,7 @@
         <v>10</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V29">
         <v>6</v>
@@ -2950,7 +2950,7 @@
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y29">
         <v>10</v>
@@ -2964,7 +2964,7 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>9</v>
@@ -2973,7 +2973,7 @@
         <v>-1</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -3018,7 +3018,7 @@
         <v>10</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V30">
         <v>9</v>
@@ -3027,7 +3027,7 @@
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y30">
         <v>10</v>
@@ -3041,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>8</v>
@@ -3050,7 +3050,7 @@
         <v>-1</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -3095,7 +3095,7 @@
         <v>10</v>
       </c>
       <c r="U31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V31">
         <v>8</v>
@@ -3104,7 +3104,7 @@
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y31">
         <v>10</v>
@@ -3118,7 +3118,7 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -3127,7 +3127,7 @@
         <v>-1</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -3172,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V32">
         <v>8</v>
@@ -3181,7 +3181,7 @@
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y32">
         <v>10</v>
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -3204,7 +3204,7 @@
         <v>-1</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -3249,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V33">
         <v>8</v>
@@ -3258,7 +3258,7 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y33">
         <v>10</v>
@@ -3349,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -3358,7 +3358,7 @@
         <v>-1</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -3403,7 +3403,7 @@
         <v>7</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V35">
         <v>6</v>
@@ -3412,7 +3412,7 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y35">
         <v>10</v>
@@ -3426,7 +3426,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -3435,7 +3435,7 @@
         <v>-1</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>9</v>
@@ -3480,7 +3480,7 @@
         <v>10</v>
       </c>
       <c r="U36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V36">
         <v>8</v>
@@ -3489,7 +3489,7 @@
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y36">
         <v>9</v>
@@ -3503,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -3512,7 +3512,7 @@
         <v>-1</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -3557,7 +3557,7 @@
         <v>10</v>
       </c>
       <c r="U37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V37">
         <v>8</v>
@@ -3566,7 +3566,7 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y37">
         <v>10</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3743,27 +3743,30 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>9.199999999999999</v>
+      </c>
       <c r="I3">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -3772,27 +3775,30 @@
         <v>35</v>
       </c>
       <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>8.6</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>35</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -3801,25 +3807,25 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>82.86</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3859,7 +3865,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3940,7 +3946,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3960,7 +3966,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4000,7 +4006,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4020,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4040,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4060,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4080,7 +4086,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4120,7 +4126,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4140,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4160,7 +4166,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4180,7 +4186,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4200,7 +4206,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4240,7 +4246,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4260,7 +4266,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4280,7 +4286,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4300,7 +4306,7 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4320,7 +4326,7 @@
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4360,7 +4366,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4380,7 +4386,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4400,7 +4406,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4420,7 +4426,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4440,7 +4446,7 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4480,7 +4486,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4500,7 +4506,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4520,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4540,7 +4546,7 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4560,7 +4566,7 @@
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4600,7 +4606,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4620,7 +4626,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4640,7 +4646,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4660,7 +4666,7 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4680,7 +4686,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4720,7 +4726,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4740,7 +4746,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4760,7 +4766,7 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4780,7 +4786,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4800,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4840,7 +4846,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4860,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4880,7 +4886,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4900,7 +4906,7 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4920,7 +4926,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4960,7 +4966,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4980,7 +4986,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5000,7 +5006,7 @@
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5020,7 +5026,7 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5040,7 +5046,7 @@
         <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5080,7 +5086,7 @@
         <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5100,7 +5106,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5120,7 +5126,7 @@
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5140,7 +5146,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5160,7 +5166,7 @@
         <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5200,7 +5206,7 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5220,7 +5226,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5240,7 +5246,7 @@
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5260,7 +5266,7 @@
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5280,7 +5286,7 @@
         <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5320,7 +5326,7 @@
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5340,7 +5346,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5360,7 +5366,7 @@
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5380,7 +5386,7 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5400,7 +5406,7 @@
         <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5440,7 +5446,7 @@
         <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5460,7 +5466,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5480,7 +5486,7 @@
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5500,7 +5506,7 @@
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5520,7 +5526,7 @@
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5560,7 +5566,7 @@
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5580,7 +5586,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5600,7 +5606,7 @@
         <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5620,7 +5626,7 @@
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5640,7 +5646,7 @@
         <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5680,7 +5686,7 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5700,7 +5706,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5720,7 +5726,7 @@
         <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5740,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5760,7 +5766,7 @@
         <v>6</v>
       </c>
       <c r="F93" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5800,7 +5806,7 @@
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5820,7 +5826,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5840,7 +5846,7 @@
         <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5860,7 +5866,7 @@
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5880,7 +5886,7 @@
         <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5920,7 +5926,7 @@
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5940,7 +5946,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5960,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5980,7 +5986,7 @@
         <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6000,7 +6006,7 @@
         <v>6</v>
       </c>
       <c r="F105" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6040,7 +6046,7 @@
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6060,7 +6066,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6080,7 +6086,7 @@
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6100,7 +6106,7 @@
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6120,7 +6126,7 @@
         <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6160,7 +6166,7 @@
         <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6180,7 +6186,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6200,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="F115" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6220,7 +6226,7 @@
         <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6240,7 +6246,7 @@
         <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6280,7 +6286,7 @@
         <v>8</v>
       </c>
       <c r="F119" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6300,7 +6306,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6320,7 +6326,7 @@
         <v>5</v>
       </c>
       <c r="F121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6340,7 +6346,7 @@
         <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6360,7 +6366,7 @@
         <v>6</v>
       </c>
       <c r="F123" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6400,7 +6406,7 @@
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6420,7 +6426,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6440,7 +6446,7 @@
         <v>5</v>
       </c>
       <c r="F127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6460,7 +6466,7 @@
         <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6480,7 +6486,7 @@
         <v>6</v>
       </c>
       <c r="F129" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6520,7 +6526,7 @@
         <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6540,7 +6546,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6560,7 +6566,7 @@
         <v>5</v>
       </c>
       <c r="F133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6580,7 +6586,7 @@
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6600,7 +6606,7 @@
         <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6640,7 +6646,7 @@
         <v>8</v>
       </c>
       <c r="F137" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6660,7 +6666,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6680,7 +6686,7 @@
         <v>5</v>
       </c>
       <c r="F139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6700,7 +6706,7 @@
         <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6720,7 +6726,7 @@
         <v>6</v>
       </c>
       <c r="F141" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6760,7 +6766,7 @@
         <v>8</v>
       </c>
       <c r="F143" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6780,7 +6786,7 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6800,7 +6806,7 @@
         <v>5</v>
       </c>
       <c r="F145" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6820,7 +6826,7 @@
         <v>9</v>
       </c>
       <c r="F146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6840,7 +6846,7 @@
         <v>6</v>
       </c>
       <c r="F147" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6880,7 +6886,7 @@
         <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6900,7 +6906,7 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6920,7 +6926,7 @@
         <v>5</v>
       </c>
       <c r="F151" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6940,7 +6946,7 @@
         <v>9</v>
       </c>
       <c r="F152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6960,7 +6966,7 @@
         <v>6</v>
       </c>
       <c r="F153" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7000,7 +7006,7 @@
         <v>8</v>
       </c>
       <c r="F155" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -7020,7 +7026,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7040,7 +7046,7 @@
         <v>5</v>
       </c>
       <c r="F157" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7060,7 +7066,7 @@
         <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -7080,7 +7086,7 @@
         <v>6</v>
       </c>
       <c r="F159" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7120,7 +7126,7 @@
         <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -7140,7 +7146,7 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7160,7 +7166,7 @@
         <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7180,7 +7186,7 @@
         <v>9</v>
       </c>
       <c r="F164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7200,7 +7206,7 @@
         <v>6</v>
       </c>
       <c r="F165" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7240,7 +7246,7 @@
         <v>8</v>
       </c>
       <c r="F167" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -7260,7 +7266,7 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7280,7 +7286,7 @@
         <v>5</v>
       </c>
       <c r="F169" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7300,7 +7306,7 @@
         <v>9</v>
       </c>
       <c r="F170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7320,7 +7326,7 @@
         <v>6</v>
       </c>
       <c r="F171" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7360,7 +7366,7 @@
         <v>8</v>
       </c>
       <c r="F173" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7380,7 +7386,7 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7400,7 +7406,7 @@
         <v>5</v>
       </c>
       <c r="F175" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7420,7 +7426,7 @@
         <v>9</v>
       </c>
       <c r="F176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7440,7 +7446,7 @@
         <v>6</v>
       </c>
       <c r="F177" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7480,7 +7486,7 @@
         <v>8</v>
       </c>
       <c r="F179" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7500,7 +7506,7 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7520,7 +7526,7 @@
         <v>5</v>
       </c>
       <c r="F181" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7540,7 +7546,7 @@
         <v>9</v>
       </c>
       <c r="F182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7560,7 +7566,7 @@
         <v>6</v>
       </c>
       <c r="F183" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7600,7 +7606,7 @@
         <v>8</v>
       </c>
       <c r="F185" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7620,7 +7626,7 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7640,7 +7646,7 @@
         <v>5</v>
       </c>
       <c r="F187" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7660,7 +7666,7 @@
         <v>9</v>
       </c>
       <c r="F188" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7680,7 +7686,7 @@
         <v>6</v>
       </c>
       <c r="F189" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7720,7 +7726,7 @@
         <v>8</v>
       </c>
       <c r="F191" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7740,7 +7746,7 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7760,7 +7766,7 @@
         <v>5</v>
       </c>
       <c r="F193" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7780,7 +7786,7 @@
         <v>9</v>
       </c>
       <c r="F194" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7800,7 +7806,7 @@
         <v>6</v>
       </c>
       <c r="F195" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7840,7 +7846,7 @@
         <v>8</v>
       </c>
       <c r="F197" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7860,7 +7866,7 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7880,7 +7886,7 @@
         <v>5</v>
       </c>
       <c r="F199" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -7900,7 +7906,7 @@
         <v>9</v>
       </c>
       <c r="F200" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -7920,7 +7926,7 @@
         <v>6</v>
       </c>
       <c r="F201" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -7960,7 +7966,7 @@
         <v>8</v>
       </c>
       <c r="F203" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -7980,7 +7986,7 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8000,7 +8006,7 @@
         <v>5</v>
       </c>
       <c r="F205" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8020,7 +8026,7 @@
         <v>9</v>
       </c>
       <c r="F206" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -8040,7 +8046,7 @@
         <v>6</v>
       </c>
       <c r="F207" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -8080,7 +8086,7 @@
         <v>8</v>
       </c>
       <c r="F209" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -8100,7 +8106,7 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8120,7 +8126,7 @@
         <v>5</v>
       </c>
       <c r="F211" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8759,7 +8765,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8792,6 +8798,742 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920276</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920154</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920423</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920281</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920176</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920174</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920175</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920303</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/5ALCM - Estadisticos 20211.xlsx
+++ b/grupos/5ALCM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="151">
   <si>
     <t>Materia</t>
   </si>
@@ -188,21 +188,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Ángel Martínez Gerson Hermenegildo</t>
+  </si>
+  <si>
+    <t>Jiménez Nieto Enrique</t>
+  </si>
+  <si>
+    <t>Molina Quezada Raúl</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
-    <t>Ángel Martínez Gerson Hermenegildo</t>
-  </si>
-  <si>
-    <t>Jiménez Nieto Enrique</t>
-  </si>
-  <si>
-    <t>Molina Quezada Raúl</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -215,193 +215,193 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>COUDER</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>ELIZALDE</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MIXCOAC</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>PALOMARES</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>YULIANA</t>
+  </si>
+  <si>
+    <t>AYELEN</t>
+  </si>
+  <si>
+    <t>ADRIANA ISABEL</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>FRANCISCO EMMANUEL</t>
+  </si>
+  <si>
+    <t>CINTHIA</t>
+  </si>
+  <si>
+    <t>ELYDEN JULYSSA</t>
+  </si>
+  <si>
+    <t>KAROL</t>
+  </si>
+  <si>
+    <t>MARLENE</t>
+  </si>
+  <si>
+    <t>AYOCTLE</t>
+  </si>
+  <si>
     <t>BALDERAS</t>
   </si>
   <si>
-    <t>COUDER</t>
-  </si>
-  <si>
-    <t>CABRERA</t>
-  </si>
-  <si>
-    <t>ELIZALDE</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MIXCOAC</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
+    <t>BONOLA</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
   </si>
   <si>
     <t>SIERRA</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>PALOMARES</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>BERUDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>SILVERIO</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>TETLA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>ONOFRE</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CARTEÑO</t>
+  </si>
+  <si>
+    <t>KARLA</t>
   </si>
   <si>
     <t>LUIS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>YULIANA</t>
-  </si>
-  <si>
-    <t>AYELEN</t>
-  </si>
-  <si>
-    <t>ADRIANA ISABEL</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>FRANCISCO EMMANUEL</t>
-  </si>
-  <si>
-    <t>CINTHIA</t>
-  </si>
-  <si>
-    <t>ELYDEN JULYSSA</t>
-  </si>
-  <si>
-    <t>KAROL</t>
-  </si>
-  <si>
-    <t>MARLENE</t>
-  </si>
-  <si>
-    <t>AYOCTLE</t>
-  </si>
-  <si>
-    <t>BONOLA</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>COYOHUA</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>TEHUINTLE</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>BERUDEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
-    <t>SILVERIO</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>ONOFRE</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>CARTEÑO</t>
-  </si>
-  <si>
-    <t>KARLA</t>
   </si>
   <si>
     <t>IAN ISSAID</t>
@@ -1045,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -1099,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>7</v>
@@ -1199,7 +1199,7 @@
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -1253,7 +1253,7 @@
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X7">
         <v>8</v>
@@ -1430,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>-1</v>
@@ -1484,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1584,7 +1584,7 @@
         <v>-1</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -1638,7 +1638,7 @@
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X12">
         <v>7</v>
@@ -1738,7 +1738,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -1792,7 +1792,7 @@
         <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -2354,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2585,7 +2585,7 @@
         <v>-1</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>-1</v>
@@ -2639,7 +2639,7 @@
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -3278,7 +3278,7 @@
         <v>-1</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>-1</v>
@@ -3332,7 +3332,7 @@
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3586,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>-1</v>
@@ -3640,7 +3640,7 @@
         <v>7</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3714,30 +3714,30 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>8.6</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>74.29000000000001</v>
-      </c>
-      <c r="G2">
+      <c r="J2">
         <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>25.71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3746,30 +3746,30 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>82.86</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -3810,30 +3810,30 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>82.86</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>17.14</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -3845,22 +3845,22 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>85.70999999999999</v>
       </c>
       <c r="G6">
+        <v>14.29</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>7.8</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
       <c r="J6">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3868,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -3902,7 +3902,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3934,119 +3934,119 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920149</v>
+        <v>19330051920276</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920276</v>
+        <v>19330051920151</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920276</v>
+        <v>19330051920157</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920151</v>
+        <v>19330051920157</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920151</v>
+        <v>19330051920157</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920157</v>
+        <v>19330051920162</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>58</v>
@@ -4054,159 +4054,159 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920157</v>
+        <v>19330051920155</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920157</v>
+        <v>19330051920155</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920157</v>
+        <v>19330051920163</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920162</v>
+        <v>19330051920163</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920155</v>
+        <v>19330051920168</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920155</v>
+        <v>19330051920168</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920155</v>
+        <v>19330051920181</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920163</v>
+        <v>19330051920181</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -4214,19 +4214,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920163</v>
+        <v>19330051920181</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
@@ -4234,222 +4234,42 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920163</v>
+        <v>19330051920183</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920168</v>
+        <v>19330051920183</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920168</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19330051920168</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>19330051920181</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>19330051920181</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>19330051920181</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>19330051920181</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>19330051920183</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>19330051920183</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>19330051920183</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4491,16 +4311,16 @@
         <v>19330051920157</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4508,16 +4328,16 @@
         <v>19330051920181</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4525,16 +4345,16 @@
         <v>19330051920155</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4542,16 +4362,16 @@
         <v>19330051920163</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4559,16 +4379,16 @@
         <v>19330051920168</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4576,16 +4396,16 @@
         <v>19330051920183</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4593,16 +4413,16 @@
         <v>19330051920276</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4610,30 +4430,30 @@
         <v>19330051920151</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920149</v>
+        <v>19330051920162</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4641,30 +4461,30 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920162</v>
+        <v>19330051920148</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920148</v>
+        <v>19330051920149</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>127</v>
@@ -4678,10 +4498,10 @@
         <v>19330051920150</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
         <v>128</v>
@@ -4695,10 +4515,10 @@
         <v>19330051920153</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>129</v>
@@ -4712,10 +4532,10 @@
         <v>19330051920152</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
         <v>130</v>
@@ -4729,10 +4549,10 @@
         <v>19330051920154</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
         <v>131</v>
@@ -4746,10 +4566,10 @@
         <v>19330051920160</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
         <v>132</v>
@@ -4763,10 +4583,10 @@
         <v>19330051920158</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>133</v>
@@ -4780,10 +4600,10 @@
         <v>19330051920159</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>134</v>
@@ -4797,10 +4617,10 @@
         <v>19330051920423</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
         <v>135</v>
@@ -4814,10 +4634,10 @@
         <v>19330051920281</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
         <v>136</v>
@@ -4831,10 +4651,10 @@
         <v>19330051920161</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
         <v>137</v>
@@ -4848,10 +4668,10 @@
         <v>19330051920156</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>138</v>
@@ -4865,10 +4685,10 @@
         <v>19330051920165</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
         <v>139</v>
@@ -4882,13 +4702,13 @@
         <v>19330051920166</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4899,10 +4719,10 @@
         <v>19330051920170</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>140</v>
@@ -4916,10 +4736,10 @@
         <v>19330051920172</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
         <v>141</v>
@@ -4933,10 +4753,10 @@
         <v>19330051920173</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>142</v>
@@ -4950,10 +4770,10 @@
         <v>19330051920176</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
         <v>143</v>
@@ -4967,10 +4787,10 @@
         <v>19330051920174</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
         <v>144</v>
@@ -4984,10 +4804,10 @@
         <v>19330051920175</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
         <v>145</v>
@@ -5001,10 +4821,10 @@
         <v>19330051920178</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
         <v>146</v>
@@ -5018,10 +4838,10 @@
         <v>19330051920179</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
         <v>147</v>
@@ -5035,10 +4855,10 @@
         <v>19330051920180</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
         <v>148</v>
@@ -5052,10 +4872,10 @@
         <v>19330051920303</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
         <v>149</v>
@@ -5069,10 +4889,10 @@
         <v>19330051920182</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>150</v>
@@ -5123,22 +4943,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920276</v>
+        <v>19330051920151</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5146,45 +4966,45 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920276</v>
+        <v>19330051920151</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920151</v>
+        <v>19330051920163</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5192,22 +5012,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920151</v>
+        <v>19330051920163</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5215,22 +5035,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920149</v>
+        <v>19330051920276</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -5241,10 +5061,10 @@
         <v>19330051920159</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>134</v>
@@ -5253,7 +5073,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5264,19 +5084,19 @@
         <v>19330051920162</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -5287,10 +5107,10 @@
         <v>19330051920165</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
         <v>139</v>
@@ -5299,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>5</v>
